--- a/metadata/flux_metadata_level2_15min.xlsx
+++ b/metadata/flux_metadata_level2_15min.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/temp_out/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBD00EB-E104-594C-84E3-67F2B4EB45F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF817E5-9105-A148-84E2-A2195C1246AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37100" yWindow="-1680" windowWidth="28700" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Conventions</t>
   </si>
   <si>
-    <t>CF-1.6, NCAS-AMF-1.0</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -154,12 +151,6 @@
     <t>location_keywords</t>
   </si>
   <si>
-    <t>amf_vocabularies_release</t>
-  </si>
-  <si>
-    <t>https://github.com/ncasuk/AMF_CVs/releases/tag/0.5.0</t>
-  </si>
-  <si>
     <t>history</t>
   </si>
   <si>
@@ -232,9 +223,6 @@
     <t>15 minutes</t>
   </si>
   <si>
-    <t>ACE-flux-2: uSonic-3 Sonic Anemometer</t>
-  </si>
-  <si>
     <t>Metek</t>
   </si>
   <si>
@@ -248,13 +236,19 @@
   </si>
   <si>
     <t>https://github.com/heatherguy/ace-ceda-master</t>
+  </si>
+  <si>
+    <t>CF-1.6</t>
+  </si>
+  <si>
+    <t>ace-flux-2: uSonic-3 Sonic Anemometer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -282,13 +276,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -350,9 +337,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -382,26 +369,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -693,10 +677,10 @@
   <dimension ref="A1:M1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B41" sqref="B41"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -719,273 +703,273 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>70</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>71</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>72</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="20">
+        <v>6</v>
+      </c>
+      <c r="B6" s="19">
         <v>111117432</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>51</v>
+        <v>11</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>52</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>53</v>
+        <v>13</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>75</v>
+        <v>14</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>54</v>
+        <v>16</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>55</v>
+        <v>17</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>56</v>
+        <v>18</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>69</v>
+        <v>19</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>69</v>
+        <v>20</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>57</v>
+        <v>22</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="16"/>
+        <v>23</v>
+      </c>
+      <c r="B22" s="15"/>
     </row>
     <row r="23" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>58</v>
+        <v>24</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>59</v>
+        <v>25</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>60</v>
+        <v>26</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>61</v>
+        <v>27</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>62</v>
+        <v>30</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>64</v>
+        <v>36</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>66</v>
+        <v>40</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -1001,46 +985,42 @@
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>45</v>
+      <c r="B39" s="16" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>68</v>
+        <v>44</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>73</v>
-      </c>
+      <c r="A41" s="10"/>
+      <c r="B41" s="6"/>
     </row>
     <row r="42" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="11"/>
+      <c r="A42" s="3"/>
       <c r="B42" s="6"/>
     </row>
     <row r="43" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1057,7 +1037,7 @@
     </row>
     <row r="46" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
-      <c r="B46" s="6"/>
+      <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
@@ -1065,7 +1045,7 @@
     </row>
     <row r="48" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
@@ -1080,11 +1060,11 @@
       <c r="B51" s="6"/>
     </row>
     <row r="52" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3"/>
+      <c r="A52" s="10"/>
       <c r="B52" s="6"/>
     </row>
     <row r="53" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="11"/>
+      <c r="A53" s="3"/>
       <c r="B53" s="6"/>
     </row>
     <row r="54" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1124,7 +1104,6 @@
       <c r="B62" s="6"/>
     </row>
     <row r="63" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="3"/>
       <c r="B63" s="6"/>
     </row>
     <row r="64" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -3944,18 +3923,15 @@
     <row r="1002" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1002" s="6"/>
     </row>
-    <row r="1003" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1003" s="6"/>
-    </row>
+    <row r="1003" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B26" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="B27" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B39" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B25" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B25" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/metadata/flux_metadata_level2_15min.xlsx
+++ b/metadata/flux_metadata_level2_15min.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF817E5-9105-A148-84E2-A2195C1246AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0EFAD7-099E-8348-83EE-8054138A3C8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37100" yWindow="-1680" windowWidth="28700" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -211,9 +211,6 @@
     <t>3267 m</t>
   </si>
   <si>
-    <t>72.572962N, -38.470361E</t>
-  </si>
-  <si>
     <t>Summit, Greenland, Greenland Ice Sheet</t>
   </si>
   <si>
@@ -242,6 +239,9 @@
   </si>
   <si>
     <t>ace-flux-2: uSonic-3 Sonic Anemometer</t>
+  </si>
+  <si>
+    <t>72.572962N -38.470361E</t>
   </si>
 </sst>
 </file>
@@ -677,10 +677,10 @@
   <dimension ref="A1:M1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -703,7 +703,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -711,7 +711,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -719,7 +719,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -727,7 +727,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -743,7 +743,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -751,7 +751,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -791,7 +791,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -831,7 +831,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -839,7 +839,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -969,7 +969,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -996,7 +996,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1004,7 +1004,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1012,7 +1012,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">

--- a/metadata/flux_metadata_level2_15min.xlsx
+++ b/metadata/flux_metadata_level2_15min.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0EFAD7-099E-8348-83EE-8054138A3C8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359F3CEB-4758-4E49-AC54-CDEEED4394E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37100" yWindow="-1680" windowWidth="28700" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -199,9 +199,6 @@
     <t>https://orcid.org/0000-0003-4560-4812</t>
   </si>
   <si>
-    <t>Acknowledgement of the University of Leeds as the data provider is required whenever and wherever these data are used</t>
-  </si>
-  <si>
     <t>Summit Station</t>
   </si>
   <si>
@@ -242,13 +239,36 @@
   </si>
   <si>
     <t>72.572962N -38.470361E</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Acknowledgement of the following grants is required: NSFGE Grant Award number: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>1801318, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NERC Grant Award number NE/S00906X/1</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -303,6 +323,18 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -677,10 +709,10 @@
   <dimension ref="A1:M1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -703,7 +735,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -711,7 +743,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -719,7 +751,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -727,7 +759,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -743,7 +775,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -751,7 +783,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -791,7 +823,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -831,7 +863,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -839,7 +871,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -904,12 +936,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>59</v>
+      <c r="B28" s="19" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -917,7 +949,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -941,7 +973,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -969,7 +1001,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -988,7 +1020,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -996,7 +1028,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1004,7 +1036,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1012,7 +1044,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">

--- a/metadata/flux_metadata_level2_15min.xlsx
+++ b/metadata/flux_metadata_level2_15min.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359F3CEB-4758-4E49-AC54-CDEEED4394E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CED80C-1957-2E45-90D2-7CA1ED7250C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37100" yWindow="-1680" windowWidth="28700" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>Name</t>
   </si>
@@ -176,15 +176,6 @@
   </si>
   <si>
     <t>As per manufacturers specifications</t>
-  </si>
-  <si>
-    <t>available on request</t>
-  </si>
-  <si>
-    <t>not applicable</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>ICECAPS-ACE</t>
@@ -262,6 +253,18 @@
       </rPr>
       <t>NERC Grant Award number NE/S00906X/1</t>
     </r>
+  </si>
+  <si>
+    <t>https://github.com/heatherguy/ace-ceda-master/blob/master/calibration_certificates/20191204_0111117432_factory_certificate.pdf</t>
+  </si>
+  <si>
+    <t>uSonic-3: 2019-12-03</t>
+  </si>
+  <si>
+    <t>uSonic-3: 4.65c</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -371,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -422,6 +425,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -709,10 +713,10 @@
   <dimension ref="A1:M1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -735,7 +739,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -743,7 +747,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -751,7 +755,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -759,7 +763,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -775,15 +779,15 @@
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>68</v>
+      <c r="B8" s="15" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -823,7 +827,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -847,15 +851,15 @@
         <v>17</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>53</v>
+      <c r="B17" s="20" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -863,7 +867,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -871,7 +875,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -887,7 +891,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -901,7 +905,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -909,7 +913,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -917,7 +921,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -925,7 +929,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -941,7 +945,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -949,7 +953,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -973,7 +977,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1001,7 +1005,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -1020,7 +1024,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1028,7 +1032,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1036,7 +1040,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1044,7 +1048,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -3962,8 +3966,9 @@
     <hyperlink ref="B27" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="B10" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="B25" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B17" r:id="rId5" xr:uid="{F1890FB2-7894-A344-917F-A6463283BD3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/metadata/flux_metadata_level2_15min.xlsx
+++ b/metadata/flux_metadata_level2_15min.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CED80C-1957-2E45-90D2-7CA1ED7250C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94CAA09-64AD-454E-A43F-51DB7F46121B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37100" yWindow="-1680" windowWidth="28700" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,9 +158,6 @@
   </si>
   <si>
     <t>v1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timeSeriesPoint </t>
   </si>
   <si>
     <t>Heather Guy</t>
@@ -265,6 +262,9 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>timeSeries</t>
   </si>
 </sst>
 </file>
@@ -713,10 +713,10 @@
   <dimension ref="A1:M1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -739,7 +739,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -747,7 +747,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -755,7 +755,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -763,7 +763,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -779,7 +779,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -787,7 +787,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -795,7 +795,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -803,7 +803,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -811,7 +811,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -819,7 +819,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -827,7 +827,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -843,7 +843,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -851,7 +851,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -859,7 +859,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -867,7 +867,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -875,7 +875,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -891,7 +891,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -905,7 +905,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -913,7 +913,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -921,7 +921,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -929,7 +929,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -945,7 +945,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -953,7 +953,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -977,15 +977,15 @@
         <v>36</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>46</v>
+      <c r="B33" s="15" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1005,7 +1005,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -1024,7 +1024,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1032,7 +1032,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1040,7 +1040,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1048,7 +1048,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
